--- a/2025_Dhwanit_One_to_one/02 Advanced Excel/jun25.xlsx
+++ b/2025_Dhwanit_One_to_one/02 Advanced Excel/jun25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_Dhwanit_One_to_one\02 Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C82A23A-21D8-41F8-9389-BB419FBA3CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE591038-D87C-4968-822C-3F59C7211700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00C455A7-C27C-4F8F-95DF-8AE123A1D978}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00C455A7-C27C-4F8F-95DF-8AE123A1D978}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>First Name</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>Either Dr or Prof</t>
-  </si>
-  <si>
-    <t>Er</t>
   </si>
   <si>
     <t>Year (Full)</t>
@@ -560,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58850FF5-B34C-49E2-BBB4-367FAD45FC65}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -714,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -822,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5836C99-4214-4D8F-A622-DB11E0F39AD2}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +830,8 @@
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
@@ -895,7 +893,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
@@ -950,6 +948,62 @@
         <f>DAY(A4)</f>
         <v>19</v>
       </c>
+      <c r="F4" t="b">
+        <f>AND(D4=4,B4&gt;=10)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f>OR(D4=4, B4&gt;=10)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f>TEXT(A4, "yyyy")</f>
+        <v>2004</v>
+      </c>
+      <c r="I4" t="str">
+        <f>TEXT(A4, "yy")</f>
+        <v>04</v>
+      </c>
+      <c r="J4" t="str">
+        <f>TEXT(A4, "m")</f>
+        <v>2</v>
+      </c>
+      <c r="K4" t="str">
+        <f>TEXT(A4, "mm")</f>
+        <v>02</v>
+      </c>
+      <c r="L4" t="str">
+        <f>TEXT(A4, "mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="M4" t="str">
+        <f>TEXT(A4, "mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="N4" t="str">
+        <f>TEXT(A4, "d")</f>
+        <v>19</v>
+      </c>
+      <c r="O4" t="str">
+        <f>TEXT(A4, "dd")</f>
+        <v>19</v>
+      </c>
+      <c r="P4" t="str">
+        <f>TEXT(A4, "ddd")</f>
+        <v>Thu</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>TEXT(A4, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="R4" t="str">
+        <f>TEXT(B4, "00")</f>
+        <v>33</v>
+      </c>
+      <c r="S4" t="str">
+        <f>TEXT(B4, "000")</f>
+        <v>033</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -959,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C18" si="0">YEAR(A5)</f>
+        <f t="shared" ref="C5:C17" si="0">YEAR(A5)</f>
         <v>2007</v>
       </c>
       <c r="D5">
@@ -970,6 +1024,62 @@
         <f t="shared" ref="E5:E18" si="2">DAY(A5)</f>
         <v>9</v>
       </c>
+      <c r="F5" t="b">
+        <f t="shared" ref="F5:F18" si="3">AND(D5=4,B5&gt;=10)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ref="G5:G18" si="4">OR(D5=4, B5&gt;=10)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H18" si="5">TEXT(A5, "yyyy")</f>
+        <v>2007</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I18" si="6">TEXT(A5, "yy")</f>
+        <v>07</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J18" si="7">TEXT(A5, "m")</f>
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K18" si="8">TEXT(A5, "mm")</f>
+        <v>01</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L18" si="9">TEXT(A5, "mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:M18" si="10">TEXT(A5, "mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N18" si="11">TEXT(A5, "d")</f>
+        <v>9</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ref="O5:O18" si="12">TEXT(A5, "dd")</f>
+        <v>09</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P18" si="13">TEXT(A5, "ddd")</f>
+        <v>Tue</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q18" si="14">TEXT(A5, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" ref="R5:R18" si="15">TEXT(B5, "00")</f>
+        <v>09</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S18" si="16">TEXT(B5, "000")</f>
+        <v>009</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -990,6 +1100,62 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="F6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="14"/>
+        <v>Sunday</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="15"/>
+        <v>05</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="16"/>
+        <v>005</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1010,6 +1176,62 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="F7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>2010</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="14"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="15"/>
+        <v>05</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="16"/>
+        <v>005</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1030,6 +1252,62 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
+      <c r="F8" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="6"/>
+        <v>09</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="14"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="15"/>
+        <v>06</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="16"/>
+        <v>006</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1050,6 +1328,62 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="F9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="5"/>
+        <v>2006</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="6"/>
+        <v>06</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="14"/>
+        <v>Saturday</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="15"/>
+        <v>09</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="16"/>
+        <v>009</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1070,6 +1404,62 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
+      <c r="F10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="14"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="15"/>
+        <v>06</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="16"/>
+        <v>006</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1090,6 +1480,62 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="F11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="5"/>
+        <v>2015</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="9"/>
+        <v>May</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="10"/>
+        <v>May</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="14"/>
+        <v>Sunday</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="15"/>
+        <v>03</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="16"/>
+        <v>003</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1110,6 +1556,62 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="F12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="9"/>
+        <v>Dec</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="10"/>
+        <v>December</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="13"/>
+        <v>Thu</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="16"/>
+        <v>066</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1130,6 +1632,62 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="F13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="8"/>
+        <v>07</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="9"/>
+        <v>Jul</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="10"/>
+        <v>July</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="14"/>
+        <v>Saturday</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="15"/>
+        <v>07</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="16"/>
+        <v>007</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1150,6 +1708,62 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="F14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="14"/>
+        <v>Saturday</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="16"/>
+        <v>015</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1170,6 +1784,62 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="F15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="9"/>
+        <v>Dec</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="10"/>
+        <v>December</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="14"/>
+        <v>Saturday</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="16"/>
+        <v>010</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1190,8 +1860,64 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="8"/>
+        <v>09</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="9"/>
+        <v>Sep</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="10"/>
+        <v>September</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="14"/>
+        <v>Saturday</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="15"/>
+        <v>04</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="16"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>39688</v>
       </c>
@@ -1210,8 +1936,64 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="8"/>
+        <v>08</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="9"/>
+        <v>Aug</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="10"/>
+        <v>August</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="13"/>
+        <v>Thu</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="16"/>
+        <v>013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>39507</v>
       </c>
@@ -1219,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>YEAR(A18)</f>
         <v>2008</v>
       </c>
       <c r="D18">
@@ -1230,50 +2012,122 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F18" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="8"/>
+        <v>02</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="9"/>
+        <v>Feb</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="10"/>
+        <v>February</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="13"/>
+        <v>Fri</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="15"/>
+        <v>07</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="16"/>
+        <v>007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="O20">
+        <f>SUM(O4:O18)</f>
+        <v>0</v>
+      </c>
       <c r="Q20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="O21">
+        <f>O4+O5</f>
+        <v>28</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C22" t="b">
+        <f>AND(C21&gt;=30, C21&lt;=40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>49</v>
+      </c>
+      <c r="C25" t="str">
+        <f>IF(OR(C24="Dr", C24="Prof"), "Yes", "No")</f>
+        <v>Yes</v>
       </c>
     </row>
   </sheetData>
